--- a/Team-Data/2011-12/4-19-2011-12.xlsx
+++ b/Team-Data/2011-12/4-19-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -777,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>2.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
@@ -938,10 +1005,10 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -977,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
@@ -986,10 +1053,10 @@
         <v>21</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1171,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.746</v>
+        <v>0.758</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J5" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="O5" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q5" t="n">
         <v>0.72</v>
       </c>
       <c r="R5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="S5" t="n">
         <v>32.4</v>
       </c>
       <c r="T5" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U5" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
         <v>14.1</v>
@@ -1272,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.3</v>
@@ -1284,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,25 +1369,25 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK5" t="n">
         <v>11</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>12</v>
-      </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1526,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1672,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>27</v>
@@ -1705,10 +1772,10 @@
         <v>12</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1887,7 +1954,7 @@
         <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,13 +2025,13 @@
         <v>34.7</v>
       </c>
       <c r="J9" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
         <v>13.5</v>
@@ -1973,10 +2040,10 @@
         <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q9" t="n">
         <v>0.757</v>
@@ -1988,10 +2055,10 @@
         <v>28.4</v>
       </c>
       <c r="T9" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U9" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="V9" t="n">
         <v>15.7</v>
@@ -2000,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y9" t="n">
         <v>5.3</v>
@@ -2009,22 +2076,22 @@
         <v>19.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>22</v>
@@ -2036,10 +2103,10 @@
         <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,13 +2115,13 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
         <v>16</v>
@@ -2063,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>27</v>
@@ -2078,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2087,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -2304,34 +2371,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I11" t="n">
         <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
         <v>0.36</v>
@@ -2340,10 +2407,10 @@
         <v>15.7</v>
       </c>
       <c r="P11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.784</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
         <v>11.6</v>
@@ -2364,7 +2431,7 @@
         <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y11" t="n">
         <v>5.1</v>
@@ -2373,28 +2440,28 @@
         <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB11" t="n">
         <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2403,10 +2470,10 @@
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>14</v>
@@ -2421,7 +2488,7 @@
         <v>28</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>14</v>
@@ -2430,19 +2497,19 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY11" t="n">
         <v>19</v>
@@ -2457,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.651</v>
+        <v>0.645</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J12" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
         <v>6</v>
@@ -2519,16 +2586,16 @@
         <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
         <v>0.784</v>
       </c>
       <c r="R12" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
         <v>31.4</v>
@@ -2537,10 +2604,10 @@
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V12" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
@@ -2555,16 +2622,16 @@
         <v>21.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2579,13 +2646,13 @@
         <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2603,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>7</v>
@@ -2618,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
@@ -2636,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.619</v>
+        <v>0.629</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,25 +2753,25 @@
         <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
         <v>0.679</v>
@@ -2719,40 +2786,40 @@
         <v>41.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W13" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X13" t="n">
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
@@ -2776,10 +2843,10 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2797,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
@@ -2809,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3158,13 +3225,13 @@
         <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.726</v>
+        <v>0.721</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
         <v>79.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
@@ -3247,13 +3314,13 @@
         <v>0.363</v>
       </c>
       <c r="O16" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P16" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
@@ -3262,10 +3329,10 @@
         <v>31.2</v>
       </c>
       <c r="T16" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
@@ -3277,40 +3344,40 @@
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z16" t="n">
         <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="n">
         <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3340,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>0.468</v>
+        <v>0.475</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3420,40 +3487,40 @@
         <v>0.445</v>
       </c>
       <c r="L17" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M17" t="n">
         <v>19.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P17" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
         <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T17" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V17" t="n">
         <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
@@ -3462,19 +3529,19 @@
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3498,10 +3565,10 @@
         <v>18</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
         <v>15</v>
@@ -3516,16 +3583,16 @@
         <v>6</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
         <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,19 +3663,19 @@
         <v>35.7</v>
       </c>
       <c r="J18" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O18" t="n">
         <v>19.5</v>
@@ -3617,13 +3684,13 @@
         <v>25.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T18" t="n">
         <v>43.9</v>
@@ -3632,28 +3699,28 @@
         <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA18" t="n">
         <v>21.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3668,19 +3735,19 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3695,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
@@ -3719,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3868,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3907,13 +3974,13 @@
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>0.317</v>
+        <v>0.306</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.451</v>
@@ -3969,31 +4036,31 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.334</v>
+        <v>0.338</v>
       </c>
       <c r="O20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q20" t="n">
         <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U20" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
@@ -4014,16 +4081,16 @@
         <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>30</v>
@@ -4050,10 +4117,10 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO20" t="n">
         <v>21</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4074,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW20" t="n">
         <v>20</v>
@@ -4083,7 +4150,7 @@
         <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4095,7 +4162,7 @@
         <v>29</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4408,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>13</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -4596,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>28</v>
@@ -4626,7 +4693,7 @@
         <v>25</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>4.5</v>
       </c>
       <c r="AD24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE24" t="n">
         <v>16</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
         <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
@@ -4870,7 +4937,7 @@
         <v>37.7</v>
       </c>
       <c r="J25" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.459</v>
@@ -4879,13 +4946,13 @@
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O25" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P25" t="n">
         <v>21.4</v>
@@ -4912,43 +4979,43 @@
         <v>6.6</v>
       </c>
       <c r="X25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA25" t="n">
         <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4957,10 +5024,10 @@
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4984,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4996,7 +5063,7 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5166,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW26" t="n">
         <v>13</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,10 +5373,10 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5318,7 +5385,7 @@
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
         <v>11</v>
@@ -5339,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>6.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,7 +5737,7 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5688,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -5697,7 +5764,7 @@
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>15</v>
@@ -5733,7 +5800,7 @@
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5903,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,16 +6101,16 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6070,7 +6137,7 @@
         <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-19-2011-12</t>
+          <t>2012-04-19</t>
         </is>
       </c>
     </row>
